--- a/document/꿈엔집_상품정보_최신.xlsx
+++ b/document/꿈엔집_상품정보_최신.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00001_사업자\0002_ON_OFF\003_통합자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785FCCAF-C342-4F8D-9E79-F5A5DF3DBDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C991A-72EA-43B4-BAD3-07F5E0DE7B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -2077,6 +2077,21 @@
     <xf numFmtId="41" fontId="7" fillId="24" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="31" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2086,16 +2101,67 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,21 +2170,12 @@
     <xf numFmtId="176" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2137,47 +2194,71 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="17" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2222,87 +2303,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="18" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="19" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="20" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="22" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="23" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="21" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="31" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,86 +2652,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F92263-1B35-4A2B-A30E-B9E77770D938}">
   <dimension ref="B2:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" customWidth="1"/>
-    <col min="16" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" customWidth="1"/>
+    <col min="11" max="11" width="5.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.59765625" customWidth="1"/>
+    <col min="16" max="16" width="4.8984375" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.8984375" customWidth="1"/>
+    <col min="20" max="20" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="193"/>
+    <col min="24" max="24" width="9" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="E2" s="122" t="s">
+      <c r="C2" s="127"/>
+      <c r="E2" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="I2" s="123" t="s">
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="I2" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="124"/>
+      <c r="J2" s="129"/>
       <c r="L2" s="40" t="s">
         <v>67</v>
       </c>
       <c r="M2" s="41"/>
-      <c r="N2" s="122" t="s">
+      <c r="N2" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="Q2" s="197" t="s">
+      <c r="O2" s="127"/>
+      <c r="Q2" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="R2" s="196">
+      <c r="R2" s="125">
         <v>10</v>
       </c>
-      <c r="S2" s="196">
+      <c r="S2" s="125">
         <v>10</v>
       </c>
-      <c r="T2" s="196">
+      <c r="T2" s="125">
         <v>19680</v>
       </c>
       <c r="U2">
         <v>17577</v>
       </c>
-      <c r="V2" s="193">
-        <f>(T2-U2)/2</f>
+      <c r="V2" s="122">
+        <f t="shared" ref="V2:V18" si="0">(T2-U2)/2</f>
         <v>1051.5</v>
       </c>
-      <c r="W2" s="193">
-        <f>U2+V2</f>
+      <c r="W2" s="122">
+        <f t="shared" ref="W2:W18" si="1">U2+V2</f>
         <v>18628.5</v>
       </c>
-      <c r="X2" s="193">
+      <c r="X2" s="122">
         <f>W2/S2</f>
         <v>1862.85</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -2762,35 +2762,35 @@
       <c r="O3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="195" t="s">
+      <c r="Q3" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="R3" s="194">
+      <c r="R3" s="123">
         <v>10</v>
       </c>
-      <c r="S3" s="194">
+      <c r="S3" s="123">
         <v>10</v>
       </c>
-      <c r="T3" s="194">
+      <c r="T3" s="123">
         <v>19980</v>
       </c>
       <c r="U3">
         <v>17577</v>
       </c>
-      <c r="V3" s="193">
-        <f>(T3-U3)/2</f>
+      <c r="V3" s="122">
+        <f t="shared" si="0"/>
         <v>1201.5</v>
       </c>
-      <c r="W3" s="193">
-        <f>U3+V3</f>
+      <c r="W3" s="122">
+        <f t="shared" si="1"/>
         <v>18778.5</v>
       </c>
-      <c r="X3" s="193">
-        <f t="shared" ref="X3:X18" si="0">W3/S3</f>
+      <c r="X3" s="122">
+        <f t="shared" ref="X3:X18" si="2">W3/S3</f>
         <v>1877.85</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4" s="50" t="s">
         <v>75</v>
       </c>
@@ -2821,35 +2821,35 @@
       <c r="O4" s="51">
         <v>2300</v>
       </c>
-      <c r="Q4" s="197" t="s">
+      <c r="Q4" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="R4" s="196">
+      <c r="R4" s="125">
         <v>24</v>
       </c>
-      <c r="S4" s="196">
+      <c r="S4" s="125">
         <v>4</v>
       </c>
-      <c r="T4" s="196">
+      <c r="T4" s="125">
         <v>17046</v>
       </c>
       <c r="U4">
         <v>15435</v>
       </c>
-      <c r="V4" s="193">
-        <f>(T4-U4)/2</f>
+      <c r="V4" s="122">
+        <f t="shared" si="0"/>
         <v>805.5</v>
       </c>
-      <c r="W4" s="193">
-        <f>U4+V4</f>
+      <c r="W4" s="122">
+        <f t="shared" si="1"/>
         <v>16240.5</v>
       </c>
-      <c r="X4" s="193">
-        <f t="shared" si="0"/>
+      <c r="X4" s="122">
+        <f t="shared" si="2"/>
         <v>4060.125</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="50" t="s">
         <v>145</v>
       </c>
@@ -2880,35 +2880,35 @@
       <c r="O5" s="50">
         <v>2350</v>
       </c>
-      <c r="Q5" s="195" t="s">
+      <c r="Q5" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="R5" s="194">
+      <c r="R5" s="123">
         <v>30</v>
       </c>
-      <c r="S5" s="194">
+      <c r="S5" s="123">
         <v>3</v>
       </c>
-      <c r="T5" s="194">
+      <c r="T5" s="123">
         <v>12248</v>
       </c>
       <c r="U5">
         <v>11060</v>
       </c>
-      <c r="V5" s="193">
-        <f>(T5-U5)/2</f>
+      <c r="V5" s="122">
+        <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="W5" s="193">
-        <f>U5+V5</f>
+      <c r="W5" s="122">
+        <f t="shared" si="1"/>
         <v>11654</v>
       </c>
-      <c r="X5" s="193">
-        <f t="shared" si="0"/>
+      <c r="X5" s="122">
+        <f t="shared" si="2"/>
         <v>3884.6666666666665</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" s="50" t="s">
         <v>78</v>
       </c>
@@ -2938,35 +2938,35 @@
         <f>19800/4</f>
         <v>4950</v>
       </c>
-      <c r="Q6" s="197" t="s">
+      <c r="Q6" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="R6" s="196">
+      <c r="R6" s="125">
         <v>30</v>
       </c>
-      <c r="S6" s="196">
+      <c r="S6" s="125">
         <v>3</v>
       </c>
-      <c r="T6" s="196">
+      <c r="T6" s="125">
         <v>14190</v>
       </c>
       <c r="U6">
         <v>13120</v>
       </c>
-      <c r="V6" s="193">
-        <f>(T6-U6)/2</f>
+      <c r="V6" s="122">
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
-      <c r="W6" s="193">
-        <f>U6+V6</f>
+      <c r="W6" s="122">
+        <f t="shared" si="1"/>
         <v>13655</v>
       </c>
-      <c r="X6" s="193">
-        <f t="shared" si="0"/>
+      <c r="X6" s="122">
+        <f t="shared" si="2"/>
         <v>4551.666666666667</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -2996,35 +2996,35 @@
         <f>14000/3</f>
         <v>4666.666666666667</v>
       </c>
-      <c r="Q7" s="195" t="s">
+      <c r="Q7" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="R7" s="194">
+      <c r="R7" s="123">
         <v>30</v>
       </c>
-      <c r="S7" s="194">
+      <c r="S7" s="123">
         <v>3</v>
       </c>
-      <c r="T7" s="194">
+      <c r="T7" s="123">
         <v>14190</v>
       </c>
       <c r="U7">
         <v>13120</v>
       </c>
-      <c r="V7" s="193">
-        <f>(T7-U7)/2</f>
+      <c r="V7" s="122">
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
-      <c r="W7" s="193">
-        <f>U7+V7</f>
+      <c r="W7" s="122">
+        <f t="shared" si="1"/>
         <v>13655</v>
       </c>
-      <c r="X7" s="193">
-        <f t="shared" si="0"/>
+      <c r="X7" s="122">
+        <f t="shared" si="2"/>
         <v>4551.666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B8" s="119" t="s">
         <v>146</v>
       </c>
@@ -3053,35 +3053,35 @@
         <f>13500/3</f>
         <v>4500</v>
       </c>
-      <c r="Q8" s="195" t="s">
+      <c r="Q8" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="194">
+      <c r="R8" s="123">
         <v>30</v>
       </c>
-      <c r="S8" s="194">
+      <c r="S8" s="123">
         <v>3</v>
       </c>
-      <c r="T8" s="194">
+      <c r="T8" s="123">
         <v>16519</v>
       </c>
       <c r="U8">
         <v>15432</v>
       </c>
-      <c r="V8" s="193">
-        <f>(T8-U8)/2</f>
+      <c r="V8" s="122">
+        <f t="shared" si="0"/>
         <v>543.5</v>
       </c>
-      <c r="W8" s="193">
-        <f>U8+V8</f>
+      <c r="W8" s="122">
+        <f t="shared" si="1"/>
         <v>15975.5</v>
       </c>
-      <c r="X8" s="193">
-        <f t="shared" si="0"/>
+      <c r="X8" s="122">
+        <f t="shared" si="2"/>
         <v>5325.166666666667</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9" s="50" t="s">
         <v>82</v>
       </c>
@@ -3111,35 +3111,35 @@
         <f>16800/3</f>
         <v>5600</v>
       </c>
-      <c r="Q9" s="197" t="s">
+      <c r="Q9" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="R9" s="196">
+      <c r="R9" s="125">
         <v>30</v>
       </c>
-      <c r="S9" s="196">
+      <c r="S9" s="125">
         <v>3</v>
       </c>
-      <c r="T9" s="196">
+      <c r="T9" s="125">
         <v>14190</v>
       </c>
       <c r="U9">
         <v>13500</v>
       </c>
-      <c r="V9" s="193">
-        <f>(T9-U9)/2</f>
+      <c r="V9" s="122">
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="W9" s="193">
-        <f>U9+V9</f>
+      <c r="W9" s="122">
+        <f t="shared" si="1"/>
         <v>13845</v>
       </c>
-      <c r="X9" s="193">
-        <f t="shared" si="0"/>
+      <c r="X9" s="122">
+        <f t="shared" si="2"/>
         <v>4615</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
@@ -3169,35 +3169,35 @@
         <f>19300/3</f>
         <v>6433.333333333333</v>
       </c>
-      <c r="Q10" s="195" t="s">
+      <c r="Q10" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="R10" s="194">
+      <c r="R10" s="123">
         <v>30</v>
       </c>
-      <c r="S10" s="194">
+      <c r="S10" s="123">
         <v>3</v>
       </c>
-      <c r="T10" s="194">
+      <c r="T10" s="123">
         <v>16906</v>
       </c>
       <c r="U10">
         <v>16111</v>
       </c>
-      <c r="V10" s="193">
-        <f>(T10-U10)/2</f>
+      <c r="V10" s="122">
+        <f t="shared" si="0"/>
         <v>397.5</v>
       </c>
-      <c r="W10" s="193">
-        <f>U10+V10</f>
+      <c r="W10" s="122">
+        <f t="shared" si="1"/>
         <v>16508.5</v>
       </c>
-      <c r="X10" s="193">
-        <f t="shared" si="0"/>
+      <c r="X10" s="122">
+        <f t="shared" si="2"/>
         <v>5502.833333333333</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>32</v>
       </c>
@@ -3227,35 +3227,35 @@
         <f>20000/3</f>
         <v>6666.666666666667</v>
       </c>
-      <c r="Q11" s="197" t="s">
+      <c r="Q11" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="R11" s="196">
+      <c r="R11" s="125">
         <v>16</v>
       </c>
-      <c r="S11" s="196">
+      <c r="S11" s="125">
         <v>1</v>
       </c>
-      <c r="T11" s="196">
+      <c r="T11" s="125">
         <v>11983</v>
       </c>
       <c r="U11">
         <v>11127</v>
       </c>
-      <c r="V11" s="193">
-        <f>(T11-U11)/2</f>
+      <c r="V11" s="122">
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
-      <c r="W11" s="193">
-        <f>U11+V11</f>
+      <c r="W11" s="122">
+        <f t="shared" si="1"/>
         <v>11555</v>
       </c>
-      <c r="X11" s="193">
-        <f t="shared" si="0"/>
+      <c r="X11" s="122">
+        <f t="shared" si="2"/>
         <v>11555</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12" s="50" t="s">
         <v>87</v>
       </c>
@@ -3284,35 +3284,35 @@
       <c r="O12" s="51">
         <v>6866.666666666667</v>
       </c>
-      <c r="Q12" s="195" t="s">
+      <c r="Q12" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="R12" s="194">
+      <c r="R12" s="123">
         <v>16</v>
       </c>
-      <c r="S12" s="194">
+      <c r="S12" s="123">
         <v>1</v>
       </c>
-      <c r="T12" s="194">
+      <c r="T12" s="123">
         <v>13777</v>
       </c>
       <c r="U12">
         <v>12795</v>
       </c>
-      <c r="V12" s="193">
-        <f>(T12-U12)/2</f>
+      <c r="V12" s="122">
+        <f t="shared" si="0"/>
         <v>491</v>
       </c>
-      <c r="W12" s="193">
-        <f>U12+V12</f>
+      <c r="W12" s="122">
+        <f t="shared" si="1"/>
         <v>13286</v>
       </c>
-      <c r="X12" s="193">
-        <f t="shared" si="0"/>
+      <c r="X12" s="122">
+        <f t="shared" si="2"/>
         <v>13286</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="50" t="s">
         <v>89</v>
       </c>
@@ -3340,35 +3340,35 @@
       <c r="O13" s="51">
         <v>14500</v>
       </c>
-      <c r="Q13" s="197" t="s">
+      <c r="Q13" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="R13" s="196">
+      <c r="R13" s="125">
         <v>16</v>
       </c>
-      <c r="S13" s="196">
+      <c r="S13" s="125">
         <v>1</v>
       </c>
-      <c r="T13" s="196">
+      <c r="T13" s="125">
         <v>14963</v>
       </c>
       <c r="U13">
         <v>14963</v>
       </c>
-      <c r="V13" s="193">
-        <f>(T13-U13)/2</f>
+      <c r="V13" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W13" s="193">
-        <f>U13+V13</f>
+      <c r="W13" s="122">
+        <f t="shared" si="1"/>
         <v>14963</v>
       </c>
-      <c r="X13" s="193">
-        <f t="shared" si="0"/>
+      <c r="X13" s="122">
+        <f t="shared" si="2"/>
         <v>14963</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B14" s="50" t="s">
         <v>91</v>
       </c>
@@ -3390,35 +3390,35 @@
       <c r="O14" s="51">
         <v>16700</v>
       </c>
-      <c r="Q14" s="195" t="s">
+      <c r="Q14" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="194">
+      <c r="R14" s="123">
         <v>16</v>
       </c>
-      <c r="S14" s="194">
+      <c r="S14" s="123">
         <v>1</v>
       </c>
-      <c r="T14" s="194">
+      <c r="T14" s="123">
         <v>21207</v>
       </c>
       <c r="U14">
         <v>21207</v>
       </c>
-      <c r="V14" s="193">
-        <f>(T14-U14)/2</f>
+      <c r="V14" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W14" s="193">
-        <f>U14+V14</f>
+      <c r="W14" s="122">
+        <f t="shared" si="1"/>
         <v>21207</v>
       </c>
-      <c r="X14" s="193">
-        <f t="shared" si="0"/>
+      <c r="X14" s="122">
+        <f t="shared" si="2"/>
         <v>21207</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B15" s="50" t="s">
         <v>93</v>
       </c>
@@ -3440,35 +3440,35 @@
       <c r="O15" s="51">
         <v>18700</v>
       </c>
-      <c r="Q15" s="197" t="s">
+      <c r="Q15" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="R15" s="196">
+      <c r="R15" s="125">
         <v>16</v>
       </c>
-      <c r="S15" s="196">
+      <c r="S15" s="125">
         <v>1</v>
       </c>
-      <c r="T15" s="196">
+      <c r="T15" s="125">
         <v>12568</v>
       </c>
       <c r="U15">
         <v>11660</v>
       </c>
-      <c r="V15" s="193">
-        <f>(T15-U15)/2</f>
+      <c r="V15" s="122">
+        <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="W15" s="193">
-        <f>U15+V15</f>
+      <c r="W15" s="122">
+        <f t="shared" si="1"/>
         <v>12114</v>
       </c>
-      <c r="X15" s="193">
-        <f t="shared" si="0"/>
+      <c r="X15" s="122">
+        <f t="shared" si="2"/>
         <v>12114</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16" s="50" t="s">
         <v>94</v>
       </c>
@@ -3490,35 +3490,35 @@
       <c r="O16" s="51">
         <v>27000</v>
       </c>
-      <c r="Q16" s="195" t="s">
+      <c r="Q16" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="R16" s="194">
+      <c r="R16" s="123">
         <v>16</v>
       </c>
-      <c r="S16" s="194">
+      <c r="S16" s="123">
         <v>1</v>
       </c>
-      <c r="T16" s="194">
+      <c r="T16" s="123">
         <v>14459</v>
       </c>
       <c r="U16">
         <v>13418</v>
       </c>
-      <c r="V16" s="193">
-        <f>(T16-U16)/2</f>
+      <c r="V16" s="122">
+        <f t="shared" si="0"/>
         <v>520.5</v>
       </c>
-      <c r="W16" s="193">
-        <f>U16+V16</f>
+      <c r="W16" s="122">
+        <f t="shared" si="1"/>
         <v>13938.5</v>
       </c>
-      <c r="X16" s="193">
-        <f t="shared" si="0"/>
+      <c r="X16" s="122">
+        <f t="shared" si="2"/>
         <v>13938.5</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="50" t="s">
         <v>144</v>
       </c>
@@ -3540,35 +3540,35 @@
       <c r="O17" s="51">
         <v>25500</v>
       </c>
-      <c r="Q17" s="197" t="s">
+      <c r="Q17" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="R17" s="196">
+      <c r="R17" s="125">
         <v>16</v>
       </c>
-      <c r="S17" s="196">
+      <c r="S17" s="125">
         <v>1</v>
       </c>
-      <c r="T17" s="196">
+      <c r="T17" s="125">
         <v>15710</v>
       </c>
       <c r="U17">
         <v>15710</v>
       </c>
-      <c r="V17" s="193">
-        <f>(T17-U17)/2</f>
+      <c r="V17" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W17" s="193">
-        <f>U17+V17</f>
+      <c r="W17" s="122">
+        <f t="shared" si="1"/>
         <v>15710</v>
       </c>
-      <c r="X17" s="193">
-        <f t="shared" si="0"/>
+      <c r="X17" s="122">
+        <f t="shared" si="2"/>
         <v>15710</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="50" t="s">
         <v>95</v>
       </c>
@@ -3590,35 +3590,35 @@
       <c r="O18" s="51">
         <v>15200</v>
       </c>
-      <c r="Q18" s="195" t="s">
+      <c r="Q18" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="R18" s="194">
+      <c r="R18" s="123">
         <v>16</v>
       </c>
-      <c r="S18" s="194">
+      <c r="S18" s="123">
         <v>1</v>
       </c>
-      <c r="T18" s="194">
+      <c r="T18" s="123">
         <v>21993</v>
       </c>
       <c r="U18">
         <v>21993</v>
       </c>
-      <c r="V18" s="193">
-        <f>(T18-U18)/2</f>
+      <c r="V18" s="122">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W18" s="193">
-        <f>U18+V18</f>
+      <c r="W18" s="122">
+        <f t="shared" si="1"/>
         <v>21993</v>
       </c>
-      <c r="X18" s="193">
-        <f t="shared" si="0"/>
+      <c r="X18" s="122">
+        <f t="shared" si="2"/>
         <v>21993</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" s="50" t="s">
         <v>96</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="50" t="s">
         <v>97</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="50" t="s">
         <v>98</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>27700</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B22" s="50" t="s">
         <v>99</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="62" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E24" s="52" t="s">
         <v>82</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E25" s="52" t="s">
         <v>84</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E26" s="52" t="s">
         <v>84</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0.21182266009852216</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E27" s="52" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E28" s="52" t="s">
         <v>32</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E29" s="52" t="s">
         <v>32</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E30" s="52" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E31" s="52" t="s">
         <v>87</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="E32" s="52" t="s">
         <v>87</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E33" s="52" t="s">
         <v>87</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E34" s="50" t="s">
         <v>89</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E35" s="50" t="s">
         <v>91</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E36" s="50" t="s">
         <v>93</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E37" s="50" t="s">
         <v>94</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E38" s="50" t="s">
         <v>95</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E39" s="50" t="s">
         <v>96</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E40" s="50" t="s">
         <v>97</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E41" s="50" t="s">
         <v>98</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E42" s="50" t="s">
         <v>99</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E43" s="62" t="s">
         <v>100</v>
       </c>
@@ -3961,232 +3961,232 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="65"/>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E49" s="65"/>
       <c r="F49" s="65"/>
       <c r="G49" s="65"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E51" s="65"/>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E53" s="65"/>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E54" s="65"/>
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E56" s="65"/>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E62" s="65"/>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E63" s="65"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E64" s="65"/>
       <c r="F64" s="65"/>
       <c r="G64" s="65"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E65" s="65"/>
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E66" s="65"/>
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E67" s="65"/>
       <c r="F67" s="65"/>
       <c r="G67" s="65"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
       <c r="G68" s="65"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E69" s="65"/>
       <c r="F69" s="65"/>
       <c r="G69" s="65"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E71" s="65"/>
       <c r="F71" s="65"/>
       <c r="G71" s="65"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E72" s="65"/>
       <c r="F72" s="65"/>
       <c r="G72" s="65"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E73" s="65"/>
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E75" s="65"/>
       <c r="F75" s="65"/>
       <c r="G75" s="65"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E76" s="65"/>
       <c r="F76" s="65"/>
       <c r="G76" s="65"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E77" s="65"/>
       <c r="F77" s="65"/>
       <c r="G77" s="65"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E79" s="65"/>
       <c r="F79" s="65"/>
       <c r="G79" s="65"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E81" s="65"/>
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E83" s="65"/>
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E85" s="65"/>
       <c r="F85" s="65"/>
       <c r="G85" s="65"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E87" s="65"/>
       <c r="F87" s="65"/>
       <c r="G87" s="65"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E88" s="65"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E89" s="65"/>
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
@@ -4210,52 +4210,52 @@
   </sheetPr>
   <dimension ref="B1:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.75" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.69921875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:35" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:35" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B2" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="G2" s="129" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="G2" s="151" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="39">
@@ -4284,12 +4284,12 @@
         <v>107</v>
       </c>
       <c r="P2" s="12"/>
-      <c r="Q2" s="127" t="s">
+      <c r="Q2" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="127"/>
-      <c r="S2" s="128"/>
-      <c r="U2" s="154" t="s">
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+      <c r="U2" s="133" t="s">
         <v>61</v>
       </c>
       <c r="V2" s="31">
@@ -4318,13 +4318,13 @@
         <v>176</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="151" t="s">
+      <c r="AE2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="153"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="132"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B3" s="37" t="s">
         <v>60</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="E3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="130"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="S3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="155"/>
+      <c r="U3" s="134"/>
       <c r="V3" s="11" t="s">
         <v>10</v>
       </c>
@@ -4408,8 +4408,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="131" t="s">
+    <row r="4" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="150" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -4421,7 +4421,7 @@
       <c r="E4" s="26">
         <v>1290</v>
       </c>
-      <c r="G4" s="130"/>
+      <c r="G4" s="152"/>
       <c r="H4" s="7">
         <f>$M2*$E$4</f>
         <v>325080</v>
@@ -4467,7 +4467,7 @@
         <f>R4/$K2</f>
         <v>0.1900233986522713</v>
       </c>
-      <c r="U4" s="155"/>
+      <c r="U4" s="134"/>
       <c r="V4" s="7">
         <f>$AA2*$E$4</f>
         <v>392160</v>
@@ -4518,8 +4518,8 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="131"/>
+    <row r="5" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="150"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
@@ -4532,11 +4532,11 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="2:35" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="131" t="s">
+    <row r="6" spans="2:35" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="159" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -4546,7 +4546,7 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="153" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="35">
@@ -4575,12 +4575,12 @@
         <v>89</v>
       </c>
       <c r="P6" s="12"/>
-      <c r="Q6" s="127" t="s">
+      <c r="Q6" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="127"/>
-      <c r="S6" s="128"/>
-      <c r="U6" s="154" t="s">
+      <c r="R6" s="138"/>
+      <c r="S6" s="139"/>
+      <c r="U6" s="133" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="31">
@@ -4609,15 +4609,15 @@
         <v>119</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="151" t="s">
+      <c r="AE6" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="153"/>
-    </row>
-    <row r="7" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="131"/>
-      <c r="C7" s="141"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+    </row>
+    <row r="7" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="150"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
@@ -4625,7 +4625,7 @@
         <f>E6/12.7</f>
         <v>8.6614173228346463</v>
       </c>
-      <c r="G7" s="133"/>
+      <c r="G7" s="154"/>
       <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="S7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="155"/>
+      <c r="U7" s="134"/>
       <c r="V7" s="11" t="s">
         <v>10</v>
       </c>
@@ -4696,8 +4696,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="131"/>
+    <row r="8" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="150"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="E8" s="26">
         <v>50</v>
       </c>
-      <c r="G8" s="133"/>
+      <c r="G8" s="154"/>
       <c r="H8" s="7">
         <f>$M6*$E$4</f>
         <v>330240</v>
@@ -4753,7 +4753,7 @@
         <f>R8/$K6</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U8" s="155"/>
+      <c r="U8" s="134"/>
       <c r="V8" s="7">
         <f>$AA6*$E$4</f>
         <v>314760</v>
@@ -4800,8 +4800,8 @@
         <v>0.21385221154329997</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="131" t="s">
+    <row r="9" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="150" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -4817,12 +4817,12 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="131"/>
+    <row r="10" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="150"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="26"/>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="144" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="23">
@@ -4851,12 +4851,12 @@
         <v>89</v>
       </c>
       <c r="P10" s="12"/>
-      <c r="Q10" s="127" t="s">
+      <c r="Q10" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="127"/>
-      <c r="S10" s="128"/>
-      <c r="U10" s="154" t="s">
+      <c r="R10" s="138"/>
+      <c r="S10" s="139"/>
+      <c r="U10" s="133" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="31">
@@ -4885,14 +4885,14 @@
         <v>148</v>
       </c>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="151" t="s">
+      <c r="AE10" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="153"/>
-    </row>
-    <row r="11" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="131" t="s">
+      <c r="AF10" s="131"/>
+      <c r="AG10" s="132"/>
+    </row>
+    <row r="11" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="150" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -4905,7 +4905,7 @@
         <f>225*1.1</f>
         <v>247.50000000000003</v>
       </c>
-      <c r="G11" s="135"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
@@ -4940,7 +4940,7 @@
       <c r="S11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="155"/>
+      <c r="U11" s="134"/>
       <c r="V11" s="11" t="s">
         <v>10</v>
       </c>
@@ -4976,8 +4976,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="131"/>
+    <row r="12" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="150"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +4988,7 @@
         <f>227*1.1</f>
         <v>249.70000000000002</v>
       </c>
-      <c r="G12" s="135"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="7">
         <f>$M10*$E$4</f>
         <v>330240</v>
@@ -5034,7 +5034,7 @@
         <f>R12/$K10</f>
         <v>0.19905280045752707</v>
       </c>
-      <c r="U12" s="155"/>
+      <c r="U12" s="134"/>
       <c r="V12" s="7">
         <f>$AA10*$E$4</f>
         <v>314760</v>
@@ -5081,8 +5081,8 @@
         <v>0.41570910384068283</v>
       </c>
     </row>
-    <row r="13" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="131"/>
+    <row r="13" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="150"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
       </c>
@@ -5096,8 +5096,8 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="138" t="s">
+    <row r="14" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="157" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -5110,7 +5110,7 @@
         <f>1015*1.1</f>
         <v>1116.5</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="155" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="33">
@@ -5139,12 +5139,12 @@
         <v>82</v>
       </c>
       <c r="P14" s="12"/>
-      <c r="Q14" s="127" t="s">
+      <c r="Q14" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="127"/>
-      <c r="S14" s="128"/>
-      <c r="U14" s="154" t="s">
+      <c r="R14" s="138"/>
+      <c r="S14" s="139"/>
+      <c r="U14" s="133" t="s">
         <v>39</v>
       </c>
       <c r="V14" s="31">
@@ -5173,14 +5173,14 @@
         <v>89</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="151" t="s">
+      <c r="AE14" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="153"/>
-    </row>
-    <row r="15" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="131"/>
+      <c r="AF14" s="131"/>
+      <c r="AG14" s="132"/>
+    </row>
+    <row r="15" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="150"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
       </c>
@@ -5191,7 +5191,7 @@
         <f>1060*1.1</f>
         <v>1166</v>
       </c>
-      <c r="G15" s="137"/>
+      <c r="G15" s="156"/>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="S15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="155"/>
+      <c r="U15" s="134"/>
       <c r="V15" s="11" t="s">
         <v>10</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
@@ -5276,7 +5276,7 @@
         <f>45*1.1</f>
         <v>49.500000000000007</v>
       </c>
-      <c r="G16" s="137"/>
+      <c r="G16" s="156"/>
       <c r="H16" s="7">
         <f>$M14*$E$5</f>
         <v>357680</v>
@@ -5322,7 +5322,7 @@
         <f>R16/$K14</f>
         <v>0.19895952240457485</v>
       </c>
-      <c r="U16" s="155"/>
+      <c r="U16" s="134"/>
       <c r="V16" s="7">
         <f>$AA14*$E$4</f>
         <v>412800</v>
@@ -5369,7 +5369,7 @@
         <v>0.16951729455827272</v>
       </c>
     </row>
-    <row r="17" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
         <v>33</v>
       </c>
@@ -5399,7 +5399,7 @@
       <c r="E18" s="26">
         <v>70000</v>
       </c>
-      <c r="G18" s="125" t="s">
+      <c r="G18" s="140" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="108">
@@ -5428,12 +5428,12 @@
         <v>74</v>
       </c>
       <c r="P18" s="12"/>
-      <c r="Q18" s="127" t="s">
+      <c r="Q18" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="127"/>
-      <c r="S18" s="128"/>
-      <c r="U18" s="142" t="s">
+      <c r="R18" s="138"/>
+      <c r="S18" s="139"/>
+      <c r="U18" s="135" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="19">
@@ -5462,13 +5462,13 @@
         <v>176</v>
       </c>
       <c r="AD18" s="12"/>
-      <c r="AE18" s="151" t="s">
+      <c r="AE18" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="153"/>
-    </row>
-    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF18" s="131"/>
+      <c r="AG18" s="132"/>
+    </row>
+    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
@@ -5482,7 +5482,7 @@
         <f>95*1.1</f>
         <v>104.50000000000001</v>
       </c>
-      <c r="G19" s="126"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="S19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="150"/>
+      <c r="U19" s="136"/>
       <c r="V19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
@@ -5567,7 +5567,7 @@
         <f>200*1.1</f>
         <v>220.00000000000003</v>
       </c>
-      <c r="G20" s="126"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="7">
         <f>$M18*$E$4</f>
         <v>330240</v>
@@ -5613,7 +5613,7 @@
         <f>R20/$K18</f>
         <v>0.20840821664183859</v>
       </c>
-      <c r="U20" s="150"/>
+      <c r="U20" s="136"/>
       <c r="V20" s="7">
         <f>$AA18*$E$5</f>
         <v>413440</v>
@@ -5660,7 +5660,7 @@
         <v>0.21287081339712921</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="144" t="s">
+      <c r="G22" s="142" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="25">
@@ -5719,12 +5719,12 @@
         <v>71</v>
       </c>
       <c r="P22" s="12"/>
-      <c r="Q22" s="127" t="s">
+      <c r="Q22" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="127"/>
-      <c r="S22" s="128"/>
-      <c r="U22" s="142" t="s">
+      <c r="R22" s="138"/>
+      <c r="S22" s="139"/>
+      <c r="U22" s="135" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="19">
@@ -5753,13 +5753,13 @@
         <v>119</v>
       </c>
       <c r="AD22" s="12"/>
-      <c r="AE22" s="151" t="s">
+      <c r="AE22" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="153"/>
-    </row>
-    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="132"/>
+    </row>
+    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5773,7 +5773,7 @@
         <f>240*1.1</f>
         <v>264</v>
       </c>
-      <c r="G23" s="145"/>
+      <c r="G23" s="143"/>
       <c r="H23" s="11" t="s">
         <v>10</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="S23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U23" s="150"/>
+      <c r="U23" s="136"/>
       <c r="V23" s="11" t="s">
         <v>10</v>
       </c>
@@ -5844,8 +5844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G24" s="145"/>
+    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G24" s="143"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
         <v>334110</v>
@@ -5891,7 +5891,7 @@
         <f>R24/$K22</f>
         <v>0.19791012122732585</v>
       </c>
-      <c r="U24" s="150"/>
+      <c r="U24" s="136"/>
       <c r="V24" s="7">
         <f>$AA22*$E$5</f>
         <v>331840</v>
@@ -5938,15 +5938,15 @@
         <v>0.21324081632653064</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="1">
         <v>225</v>
       </c>
-      <c r="G26" s="134" t="s">
+      <c r="G26" s="144" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="23">
@@ -5975,12 +5975,12 @@
         <v>222</v>
       </c>
       <c r="P26" s="12"/>
-      <c r="Q26" s="127" t="s">
+      <c r="Q26" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="127"/>
-      <c r="S26" s="128"/>
-      <c r="U26" s="142" t="s">
+      <c r="R26" s="138"/>
+      <c r="S26" s="139"/>
+      <c r="U26" s="135" t="s">
         <v>20</v>
       </c>
       <c r="V26" s="19">
@@ -6009,20 +6009,20 @@
         <v>148</v>
       </c>
       <c r="AD26" s="12"/>
-      <c r="AE26" s="127" t="s">
+      <c r="AE26" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="128"/>
-    </row>
-    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF26" s="138"/>
+      <c r="AG26" s="139"/>
+    </row>
+    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="1">
         <v>225</v>
       </c>
-      <c r="G27" s="135"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="S27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U27" s="143"/>
+      <c r="U27" s="137"/>
       <c r="V27" s="11" t="s">
         <v>10</v>
       </c>
@@ -6093,14 +6093,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="1">
         <v>227</v>
       </c>
-      <c r="G28" s="135"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="7">
         <f>$M26*$E$4</f>
         <v>328950</v>
@@ -6146,7 +6146,7 @@
         <f>$R28/$K26</f>
         <v>0.21579524783256387</v>
       </c>
-      <c r="U28" s="143"/>
+      <c r="U28" s="137"/>
       <c r="V28" s="7">
         <f>$AA26*$E$4</f>
         <v>314760</v>
@@ -6193,7 +6193,7 @@
         <v>0.44392364864864869</v>
       </c>
     </row>
-    <row r="29" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>149</v>
       </c>
@@ -6237,12 +6237,12 @@
         <v>105</v>
       </c>
       <c r="P30" s="12"/>
-      <c r="Q30" s="127" t="s">
+      <c r="Q30" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="127"/>
-      <c r="S30" s="128"/>
-      <c r="U30" s="142" t="s">
+      <c r="R30" s="138"/>
+      <c r="S30" s="139"/>
+      <c r="U30" s="135" t="s">
         <v>18</v>
       </c>
       <c r="V30" s="19">
@@ -6271,13 +6271,13 @@
         <v>148</v>
       </c>
       <c r="AD30" s="12"/>
-      <c r="AE30" s="127" t="s">
+      <c r="AE30" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="128"/>
-    </row>
-    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF30" s="138"/>
+      <c r="AG30" s="139"/>
+    </row>
+    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G31" s="147"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
@@ -6313,7 +6313,7 @@
       <c r="S31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="143"/>
+      <c r="U31" s="137"/>
       <c r="V31" s="11" t="s">
         <v>10</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G32" s="147"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
@@ -6396,7 +6396,7 @@
         <f>$R32/$K30</f>
         <v>0.20044103577961847</v>
       </c>
-      <c r="U32" s="143"/>
+      <c r="U32" s="137"/>
       <c r="V32" s="7">
         <f>$AA30*$E$4</f>
         <v>314760</v>
@@ -6443,8 +6443,8 @@
         <v>0.5970883204633205</v>
       </c>
     </row>
-    <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
       <c r="G34" s="148" t="s">
         <v>16</v>
       </c>
@@ -6474,13 +6474,13 @@
         <v>117</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="127" t="s">
+      <c r="Q34" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="127"/>
-      <c r="S34" s="128"/>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.3">
+      <c r="R34" s="138"/>
+      <c r="S34" s="139"/>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.4">
       <c r="G35" s="149"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G36" s="149"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
@@ -6565,9 +6565,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G38" s="129" t="s">
+    <row r="37" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="G38" s="151" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="39">
@@ -6596,14 +6596,14 @@
         <v>112</v>
       </c>
       <c r="P38" s="12"/>
-      <c r="Q38" s="127" t="s">
+      <c r="Q38" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="R38" s="127"/>
-      <c r="S38" s="128"/>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G39" s="130"/>
+      <c r="R38" s="138"/>
+      <c r="S38" s="139"/>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G39" s="152"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
@@ -6639,8 +6639,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="130"/>
+    <row r="40" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G40" s="152"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
         <v>335400</v>
@@ -6687,9 +6687,9 @@
         <v>0.20016097792463447</v>
       </c>
     </row>
-    <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G42" s="125" t="s">
+    <row r="41" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="G42" s="140" t="s">
         <v>32</v>
       </c>
       <c r="H42" s="108">
@@ -6718,14 +6718,14 @@
         <v>74</v>
       </c>
       <c r="P42" s="12"/>
-      <c r="Q42" s="127" t="s">
+      <c r="Q42" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="R42" s="127"/>
-      <c r="S42" s="128"/>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.3">
-      <c r="G43" s="126"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="139"/>
+    </row>
+    <row r="43" spans="7:19" x14ac:dyDescent="0.4">
+      <c r="G43" s="141"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
@@ -6761,8 +6761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G44" s="126"/>
+    <row r="44" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G44" s="141"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
         <v>334110</v>
@@ -6811,16 +6811,25 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="U30:U32"/>
     <mergeCell ref="AE30:AG30"/>
     <mergeCell ref="Q34:S34"/>
@@ -6837,25 +6846,16 @@
     <mergeCell ref="AE22:AG22"/>
     <mergeCell ref="U26:U28"/>
     <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="U6:U8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6867,276 +6867,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBEB9E-2C50-4AA9-BC7C-3D13D5CE3266}">
   <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="68" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.3984375" style="68" customWidth="1"/>
     <col min="19" max="19" width="8.5" style="68" customWidth="1"/>
-    <col min="20" max="20" width="6.625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="12.125" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.59765625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3" s="156" t="s">
+    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B3" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="156"/>
-    </row>
-    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+      <c r="AB4" s="183"/>
+      <c r="AC4" s="183"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="183"/>
+      <c r="AC5" s="183"/>
+    </row>
+    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AF7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
+    <row r="8" spans="2:32" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="162" t="s">
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="165" t="s">
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="166"/>
-      <c r="T8" s="167"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="194"/>
       <c r="U8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="168" t="s">
+      <c r="V8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="170"/>
-    </row>
-    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="197"/>
+    </row>
+    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="174" t="s">
+      <c r="F9" s="176"/>
+      <c r="G9" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="178" t="s">
+      <c r="H9" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="179" t="s">
+      <c r="I9" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="180" t="s">
+      <c r="J9" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="179" t="s">
+      <c r="K9" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="182" t="s">
+      <c r="L9" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="171" t="s">
+      <c r="M9" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="189" t="s">
+      <c r="N9" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="190" t="s">
+      <c r="O9" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="189" t="s">
+      <c r="P9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="191" t="s">
+      <c r="Q9" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="184" t="s">
+      <c r="R9" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="184" t="s">
+      <c r="S9" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="184" t="s">
+      <c r="T9" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="U9" s="186" t="s">
+      <c r="U9" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="187" t="s">
+      <c r="V9" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187" t="s">
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="188"/>
-    </row>
-    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="173"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="165"/>
+    </row>
+    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="71" t="s">
         <v>120</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="175"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="186"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="163"/>
       <c r="V10" s="72" t="s">
         <v>122</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="AE11" s="94"/>
       <c r="AF11" s="93"/>
     </row>
-    <row r="12" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="75" t="s">
         <v>129</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="AF12" s="95"/>
     </row>
-    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="98"/>
@@ -7413,7 +7413,7 @@
       <c r="AC13" s="107"/>
       <c r="AD13" s="115"/>
     </row>
-    <row r="14" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="75" t="s">
         <v>129</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>2.9067641681901263E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="96"/>
       <c r="C15" s="97"/>
       <c r="D15" s="98"/>
@@ -7553,7 +7553,7 @@
       <c r="AC15" s="107"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2.8728414442700134E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="75" t="s">
         <v>129</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>2.897727272727274E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="75" t="s">
         <v>129</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>2.8929986789960366E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="75" t="s">
         <v>129</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>2.8968466060929982E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="75" t="s">
         <v>129</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>2.8967768257853937E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="75" t="s">
         <v>129</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>2.8976266383280214E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="75" t="s">
         <v>129</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>2.8974434322656478E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
       <c r="D23" s="98"/>
@@ -8347,7 +8347,7 @@
       <c r="AC23" s="107"/>
       <c r="AD23" s="115"/>
     </row>
-    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="75" t="s">
         <v>129</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>2.7333333333333343</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="75" t="s">
         <v>129</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>2.964444444444446</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="75" t="s">
         <v>129</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>3.1433333333333309</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="75" t="s">
         <v>129</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>3.2839999999999989</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="96"/>
       <c r="C28" s="97"/>
       <c r="D28" s="98"/>
@@ -8814,7 +8814,7 @@
       <c r="AC28" s="107"/>
       <c r="AD28" s="115"/>
     </row>
-    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="75" t="s">
         <v>129</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>3.1544359255202631E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="75" t="s">
         <v>129</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>3.0700549450549453E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="75" t="s">
         <v>129</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>2.7689243027888444E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
       <c r="D32" s="98"/>
@@ -9172,7 +9172,7 @@
       <c r="AC32" s="107"/>
       <c r="AD32" s="115"/>
     </row>
-    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="75" t="s">
         <v>129</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>3.1822660098522165E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="75" t="s">
         <v>129</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>3.1381466742467307E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="75" t="s">
         <v>129</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>2.8737060041407858E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
       <c r="D36" s="98"/>
@@ -9528,7 +9528,7 @@
       <c r="AC36" s="107"/>
       <c r="AD36" s="115"/>
     </row>
-    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="75" t="s">
         <v>129</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>3.0645161290322576E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="75" t="s">
         <v>129</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>2.9451697127937354E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="75" t="s">
         <v>129</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>2.7912169705991807E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="96"/>
       <c r="C40" s="97"/>
       <c r="D40" s="98"/>
@@ -9886,7 +9886,7 @@
       <c r="AC40" s="107"/>
       <c r="AD40" s="115"/>
     </row>
-    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="75" t="s">
         <v>129</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>3.212435233160621E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="75" t="s">
         <v>129</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>3.0485338725985855E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="75" t="s">
         <v>129</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>2.9142857142857137E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="96"/>
       <c r="C44" s="97"/>
       <c r="D44" s="98"/>
@@ -10244,7 +10244,7 @@
       <c r="AC44" s="107"/>
       <c r="AD44" s="115"/>
     </row>
-    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="75" t="s">
         <v>129</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>3.1956155143338966E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="75" t="s">
         <v>129</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>3.0344827586206907E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="75" t="s">
         <v>129</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>2.9159460394327208E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="96"/>
       <c r="C48" s="97"/>
       <c r="D48" s="98"/>
@@ -10602,7 +10602,7 @@
       <c r="AC48" s="107"/>
       <c r="AD48" s="115"/>
     </row>
-    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="75" t="s">
         <v>129</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>2.3072177668106125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="75" t="s">
         <v>129</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>2.0939766635130863E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="96"/>
       <c r="C51" s="97"/>
       <c r="D51" s="98"/>
@@ -10851,7 +10851,7 @@
       <c r="AC51" s="107"/>
       <c r="AD51" s="115"/>
     </row>
-    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="75" t="s">
         <v>129</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>2.1364221364221364E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B53" s="75" t="s">
         <v>129</v>
       </c>
@@ -11069,22 +11069,18 @@
         <v>1.9891067538126361E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
       <c r="U62" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:D53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B3:AC5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="V8:AC8"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -11096,12 +11092,16 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="B3:AC5"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Z11:AC53">
@@ -11123,257 +11123,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B34607-C76F-4575-8855-6312C5317CEF}">
   <dimension ref="B1:AD49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.375" style="68" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" style="68" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="68" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="68" customWidth="1"/>
-    <col min="19" max="19" width="12.125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.59765625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="156" t="s">
+    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B3" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
-      <c r="AA5" s="156"/>
-    </row>
-    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
+      <c r="AA4" s="183"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="183"/>
+    </row>
+    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AD7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
+    <row r="8" spans="2:30" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="162" t="s">
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="165" t="s">
+      <c r="M8" s="190"/>
+      <c r="N8" s="190"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="167"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="194"/>
       <c r="S8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="T8" s="168" t="s">
+      <c r="T8" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="170"/>
-    </row>
-    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="s">
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="197"/>
+    </row>
+    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="174" t="s">
+      <c r="D9" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="174" t="s">
+      <c r="E9" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="180" t="s">
+      <c r="H9" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="179" t="s">
+      <c r="I9" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="171" t="s">
+      <c r="K9" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="189" t="s">
+      <c r="L9" s="166" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="190" t="s">
+      <c r="M9" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="189" t="s">
+      <c r="N9" s="166" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="191" t="s">
+      <c r="O9" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="184" t="s">
+      <c r="P9" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="184" t="s">
+      <c r="Q9" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="R9" s="184" t="s">
+      <c r="R9" s="161" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="186" t="s">
+      <c r="S9" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="T9" s="187" t="s">
+      <c r="T9" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187" t="s">
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="188"/>
-    </row>
-    <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="173"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="186"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="165"/>
+    </row>
+    <row r="10" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="163"/>
       <c r="T10" s="118" t="s">
         <v>122</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:30" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -11504,7 +11504,7 @@
       <c r="AC11" s="94"/>
       <c r="AD11" s="93"/>
     </row>
-    <row r="12" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="75" t="s">
         <v>147</v>
       </c>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="AD12" s="95"/>
     </row>
-    <row r="13" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="75" t="s">
         <v>147</v>
       </c>
@@ -11650,7 +11650,7 @@
       <c r="AB13" s="93"/>
       <c r="AD13" s="95"/>
     </row>
-    <row r="14" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="75" t="s">
         <v>147</v>
       </c>
@@ -11692,7 +11692,7 @@
       <c r="AB14" s="93"/>
       <c r="AD14" s="95"/>
     </row>
-    <row r="15" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="75" t="s">
         <v>147</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="AB15" s="93"/>
       <c r="AD15" s="95"/>
     </row>
-    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="96"/>
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
@@ -11763,7 +11763,7 @@
       <c r="AA16" s="107"/>
       <c r="AB16" s="115"/>
     </row>
-    <row r="17" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="75" t="s">
         <v>147</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="75" t="s">
         <v>147</v>
       </c>
@@ -11904,7 +11904,7 @@
       <c r="AA18" s="92"/>
       <c r="AB18" s="93"/>
     </row>
-    <row r="19" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="75" t="s">
         <v>147</v>
       </c>
@@ -11942,7 +11942,7 @@
       <c r="AA19" s="92"/>
       <c r="AB19" s="93"/>
     </row>
-    <row r="20" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="75" t="s">
         <v>147</v>
       </c>
@@ -11980,7 +11980,7 @@
       <c r="AA20" s="92"/>
       <c r="AB20" s="93"/>
     </row>
-    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="96"/>
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
@@ -12009,7 +12009,7 @@
       <c r="AA21" s="107"/>
       <c r="AB21" s="115"/>
     </row>
-    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="75" t="s">
         <v>147</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="96"/>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
@@ -12141,7 +12141,7 @@
       <c r="AA23" s="107"/>
       <c r="AB23" s="115"/>
     </row>
-    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="75" t="s">
         <v>147</v>
       </c>
@@ -12176,7 +12176,7 @@
       <c r="AA24" s="92"/>
       <c r="AB24" s="93"/>
     </row>
-    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="96"/>
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
@@ -12205,7 +12205,7 @@
       <c r="AA25" s="107"/>
       <c r="AB25" s="115"/>
     </row>
-    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="75" t="s">
         <v>147</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="96"/>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
@@ -12337,7 +12337,7 @@
       <c r="AA27" s="107"/>
       <c r="AB27" s="115"/>
     </row>
-    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="75" t="s">
         <v>147</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="96"/>
       <c r="C29" s="98"/>
       <c r="D29" s="99"/>
@@ -12469,7 +12469,7 @@
       <c r="AA29" s="107"/>
       <c r="AB29" s="115"/>
     </row>
-    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="75" t="s">
         <v>147</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="AA30" s="92"/>
       <c r="AB30" s="93"/>
     </row>
-    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="96"/>
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
@@ -12533,7 +12533,7 @@
       <c r="AA31" s="107"/>
       <c r="AB31" s="115"/>
     </row>
-    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="75" t="s">
         <v>147</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="96"/>
       <c r="C33" s="98"/>
       <c r="D33" s="99"/>
@@ -12665,7 +12665,7 @@
       <c r="AA33" s="107"/>
       <c r="AB33" s="115"/>
     </row>
-    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="75" t="s">
         <v>147</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="96"/>
       <c r="C35" s="98"/>
       <c r="D35" s="99"/>
@@ -12797,7 +12797,7 @@
       <c r="AA35" s="107"/>
       <c r="AB35" s="115"/>
     </row>
-    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="75" t="s">
         <v>147</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="96"/>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
@@ -12929,7 +12929,7 @@
       <c r="AA37" s="107"/>
       <c r="AB37" s="115"/>
     </row>
-    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="75" t="s">
         <v>147</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="96"/>
       <c r="C39" s="98"/>
       <c r="D39" s="99"/>
@@ -13061,7 +13061,7 @@
       <c r="AA39" s="107"/>
       <c r="AB39" s="115"/>
     </row>
-    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B40" s="75" t="s">
         <v>147</v>
       </c>
@@ -13164,22 +13164,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S49" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:C40" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="26">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
@@ -13196,6 +13186,16 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X11:AA22 X24:AA28 X30:AA40">

--- a/document/꿈엔집_상품정보_최신.xlsx
+++ b/document/꿈엔집_상품정보_최신.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C991A-72EA-43B4-BAD3-07F5E0DE7B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9874B-CB25-4D07-BE5F-ACCE38DC9BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2202C1BA-8378-4109-9FCC-5C7E0CDB8A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="168">
   <si>
     <t>마진</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -679,6 +679,26 @@
   </si>
   <si>
     <t>새피아</t>
+  </si>
+  <si>
+    <t>지관무게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뺄원단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급점보롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃지점보롤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2650,38 +2670,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F92263-1B35-4A2B-A30E-B9E77770D938}">
-  <dimension ref="B2:X89"/>
+  <dimension ref="B2:AC89"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3984375" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" customWidth="1"/>
-    <col min="11" max="11" width="5.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.59765625" customWidth="1"/>
-    <col min="16" max="16" width="4.8984375" customWidth="1"/>
-    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.8984375" customWidth="1"/>
-    <col min="20" max="20" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.875" customWidth="1"/>
+    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="6.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="127" t="s">
         <v>64</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>1862.85</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
         <v>69</v>
       </c>
@@ -2790,7 +2810,7 @@
         <v>1877.85</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
         <v>75</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>4060.125</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="50" t="s">
         <v>145</v>
       </c>
@@ -2907,8 +2927,11 @@
         <f t="shared" si="2"/>
         <v>3884.6666666666665</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>78</v>
       </c>
@@ -2965,8 +2988,11 @@
         <f t="shared" si="2"/>
         <v>4551.666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
@@ -3023,8 +3049,11 @@
         <f t="shared" si="2"/>
         <v>4551.666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="119" t="s">
         <v>146</v>
       </c>
@@ -3080,8 +3109,14 @@
         <f t="shared" si="2"/>
         <v>5325.166666666667</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
         <v>82</v>
       </c>
@@ -3138,8 +3173,14 @@
         <f t="shared" si="2"/>
         <v>4615</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
@@ -3196,8 +3237,11 @@
         <f t="shared" si="2"/>
         <v>5502.833333333333</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
         <v>32</v>
       </c>
@@ -3254,8 +3298,11 @@
         <f t="shared" si="2"/>
         <v>11555</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="50" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3358,11 @@
         <f t="shared" si="2"/>
         <v>13286</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AB12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="50" t="s">
         <v>89</v>
       </c>
@@ -3367,8 +3417,11 @@
         <f t="shared" si="2"/>
         <v>14963</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>91</v>
       </c>
@@ -3417,8 +3470,11 @@
         <f t="shared" si="2"/>
         <v>21207</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="AB14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
         <v>93</v>
       </c>
@@ -3468,7 +3524,7 @@
         <v>12114</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
         <v>94</v>
       </c>
@@ -3518,7 +3574,7 @@
         <v>13938.5</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
         <v>144</v>
       </c>
@@ -3568,7 +3624,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="50" t="s">
         <v>95</v>
       </c>
@@ -3618,7 +3674,7 @@
         <v>21993</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
         <v>96</v>
       </c>
@@ -3641,7 +3697,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
         <v>97</v>
       </c>
@@ -3664,7 +3720,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
         <v>98</v>
       </c>
@@ -3687,7 +3743,7 @@
         <v>27700</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="50" t="s">
         <v>99</v>
       </c>
@@ -3710,7 +3766,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="62" t="s">
         <v>100</v>
       </c>
@@ -3733,7 +3789,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E24" s="52" t="s">
         <v>82</v>
       </c>
@@ -3744,7 +3800,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E25" s="52" t="s">
         <v>84</v>
       </c>
@@ -3759,7 +3815,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E26" s="52" t="s">
         <v>84</v>
       </c>
@@ -3774,7 +3830,7 @@
         <v>0.21182266009852216</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E27" s="52" t="s">
         <v>84</v>
       </c>
@@ -3785,7 +3841,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E28" s="52" t="s">
         <v>32</v>
       </c>
@@ -3796,7 +3852,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E29" s="52" t="s">
         <v>32</v>
       </c>
@@ -3807,7 +3863,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E30" s="52" t="s">
         <v>32</v>
       </c>
@@ -3818,7 +3874,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E31" s="52" t="s">
         <v>87</v>
       </c>
@@ -3829,7 +3885,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E32" s="52" t="s">
         <v>87</v>
       </c>
@@ -3840,7 +3896,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" s="52" t="s">
         <v>87</v>
       </c>
@@ -3851,7 +3907,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" s="50" t="s">
         <v>89</v>
       </c>
@@ -3862,7 +3918,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" s="50" t="s">
         <v>91</v>
       </c>
@@ -3873,7 +3929,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" s="50" t="s">
         <v>93</v>
       </c>
@@ -3884,7 +3940,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" s="50" t="s">
         <v>94</v>
       </c>
@@ -3895,7 +3951,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" s="50" t="s">
         <v>95</v>
       </c>
@@ -3906,7 +3962,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" s="50" t="s">
         <v>96</v>
       </c>
@@ -3917,7 +3973,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" s="50" t="s">
         <v>97</v>
       </c>
@@ -3928,7 +3984,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E41" s="50" t="s">
         <v>98</v>
       </c>
@@ -3939,7 +3995,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" s="50" t="s">
         <v>99</v>
       </c>
@@ -3950,7 +4006,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="62" t="s">
         <v>100</v>
       </c>
@@ -3961,232 +4017,232 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
       <c r="G45" s="65"/>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="65"/>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
       <c r="G48" s="65"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="65"/>
       <c r="F49" s="65"/>
       <c r="G49" s="65"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
       <c r="G50" s="65"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="65"/>
       <c r="F51" s="65"/>
       <c r="G51" s="65"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="65"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="65"/>
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="65"/>
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="65"/>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="65"/>
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="65"/>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="65"/>
       <c r="F59" s="65"/>
       <c r="G59" s="65"/>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="65"/>
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="65"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="65"/>
       <c r="F62" s="65"/>
       <c r="G62" s="65"/>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="65"/>
       <c r="F63" s="65"/>
       <c r="G63" s="65"/>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="65"/>
       <c r="F64" s="65"/>
       <c r="G64" s="65"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="65"/>
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="65"/>
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="65"/>
       <c r="F67" s="65"/>
       <c r="G67" s="65"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="65"/>
       <c r="F68" s="65"/>
       <c r="G68" s="65"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="65"/>
       <c r="F69" s="65"/>
       <c r="G69" s="65"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="65"/>
       <c r="F71" s="65"/>
       <c r="G71" s="65"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E72" s="65"/>
       <c r="F72" s="65"/>
       <c r="G72" s="65"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="65"/>
       <c r="F73" s="65"/>
       <c r="G73" s="65"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="65"/>
       <c r="F74" s="65"/>
       <c r="G74" s="65"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="65"/>
       <c r="F75" s="65"/>
       <c r="G75" s="65"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76" s="65"/>
       <c r="F76" s="65"/>
       <c r="G76" s="65"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77" s="65"/>
       <c r="F77" s="65"/>
       <c r="G77" s="65"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E78" s="65"/>
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79" s="65"/>
       <c r="F79" s="65"/>
       <c r="G79" s="65"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80" s="65"/>
       <c r="F80" s="65"/>
       <c r="G80" s="65"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81" s="65"/>
       <c r="F81" s="65"/>
       <c r="G81" s="65"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E82" s="65"/>
       <c r="F82" s="65"/>
       <c r="G82" s="65"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83" s="65"/>
       <c r="F83" s="65"/>
       <c r="G83" s="65"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="65"/>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="65"/>
       <c r="F85" s="65"/>
       <c r="G85" s="65"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="65"/>
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="65"/>
       <c r="F87" s="65"/>
       <c r="G87" s="65"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="65"/>
       <c r="F88" s="65"/>
       <c r="G88" s="65"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E89" s="65"/>
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
@@ -4208,47 +4264,47 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AI44"/>
+  <dimension ref="B1:AY44"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="1.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.69921875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.75" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:35" ht="20.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:51" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B2" s="158" t="s">
         <v>63</v>
       </c>
@@ -4323,8 +4379,60 @@
       </c>
       <c r="AF2" s="131"/>
       <c r="AG2" s="132"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AI2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ2">
+        <f>100/13.5</f>
+        <v>7.4074074074074074</v>
+      </c>
+      <c r="AK2">
+        <v>30</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2">
+        <f>AJ2*AK2*AL2</f>
+        <v>666.66666666666674</v>
+      </c>
+      <c r="AN2"/>
+      <c r="AO2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP2">
+        <f>100/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AQ2">
+        <v>30</v>
+      </c>
+      <c r="AR2">
+        <v>3</v>
+      </c>
+      <c r="AS2">
+        <f>AP2*AQ2*AR2</f>
+        <v>750.00000000000011</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV2">
+        <f>100/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AW2">
+        <v>30</v>
+      </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2">
+        <f>AV2*AW2*AX2</f>
+        <v>750.00000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>60</v>
       </c>
@@ -4407,8 +4515,60 @@
       <c r="AG3" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ3">
+        <v>-1290</v>
+      </c>
+      <c r="AK3">
+        <f>AM2/1000</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <f>AJ3*AK3*AL3</f>
+        <v>-860.00000000000011</v>
+      </c>
+      <c r="AN3"/>
+      <c r="AO3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP3">
+        <v>-1290</v>
+      </c>
+      <c r="AQ3">
+        <f>AS2/1000</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <f>AP3*AQ3*AR3</f>
+        <v>-967.50000000000011</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV3">
+        <v>-1290</v>
+      </c>
+      <c r="AW3">
+        <f>AY2/1000</f>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <f>AV3*AW3*AX3</f>
+        <v>-967.50000000000011</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="150" t="s">
         <v>56</v>
       </c>
@@ -4513,12 +4673,57 @@
         <f>$AF4/$Y2</f>
         <v>0.21260501567398124</v>
       </c>
-      <c r="AI4" s="1">
-        <f>16*304</f>
-        <v>4864</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ4">
+        <v>1290</v>
+      </c>
+      <c r="AK4">
+        <v>2.6</v>
+      </c>
+      <c r="AL4">
+        <v>3</v>
+      </c>
+      <c r="AM4">
+        <f>AJ4*AK4*AL4</f>
+        <v>10062</v>
+      </c>
+      <c r="AN4"/>
+      <c r="AO4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP4">
+        <v>1290</v>
+      </c>
+      <c r="AQ4">
+        <v>2.7</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <f>AP4*AQ4*AR4</f>
+        <v>10449.000000000002</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV4">
+        <v>1290</v>
+      </c>
+      <c r="AW4">
+        <v>2.35</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <f>AV4*AW4*AX4</f>
+        <v>9094.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="150"/>
       <c r="C5" s="28" t="s">
         <v>38</v>
@@ -4531,8 +4736,57 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="2:35" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="AI5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5">
+        <v>8.66</v>
+      </c>
+      <c r="AK5">
+        <v>30</v>
+      </c>
+      <c r="AL5">
+        <v>3</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" ref="AM5:AM8" si="0">AJ5*AK5*AL5</f>
+        <v>779.40000000000009</v>
+      </c>
+      <c r="AN5"/>
+      <c r="AO5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP5">
+        <v>8.66</v>
+      </c>
+      <c r="AQ5">
+        <v>30</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ref="AS5:AS8" si="1">AP5*AQ5*AR5</f>
+        <v>779.40000000000009</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5">
+        <v>8.66</v>
+      </c>
+      <c r="AW5">
+        <v>30</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ref="AY5:AY8" si="2">AV5*AW5*AX5</f>
+        <v>779.40000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:51" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="150" t="s">
         <v>54</v>
       </c>
@@ -4614,8 +4868,60 @@
       </c>
       <c r="AF6" s="131"/>
       <c r="AG6" s="132"/>
-    </row>
-    <row r="7" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>742.50000000000011</v>
+      </c>
+      <c r="AN6"/>
+      <c r="AO6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>3</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="1"/>
+        <v>742.50000000000011</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV6">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="2"/>
+        <v>742.50000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="150"/>
       <c r="C7" s="160"/>
       <c r="D7" s="28" t="s">
@@ -4695,8 +5001,60 @@
       <c r="AG7" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AN7"/>
+      <c r="AO7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP7">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="1"/>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV7">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="2"/>
+        <v>247.50000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="150"/>
       <c r="C8" s="28" t="s">
         <v>49</v>
@@ -4799,8 +5157,57 @@
         <f>$AF8/$Y6</f>
         <v>0.21385221154329997</v>
       </c>
-    </row>
-    <row r="9" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ8">
+        <v>110</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="AN8"/>
+      <c r="AO8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP8">
+        <v>110</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV8">
+        <v>110</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="150" t="s">
         <v>48</v>
       </c>
@@ -4816,8 +5223,29 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9">
+        <f>SUM(AM3:AM8)</f>
+        <v>11081.4</v>
+      </c>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9">
+        <f>SUM(AS3:AS8)</f>
+        <v>11360.900000000001</v>
+      </c>
+      <c r="AY9" s="1">
+        <f>SUM(AY2:AY8)</f>
+        <v>10756.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="150"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -4891,7 +5319,7 @@
       <c r="AF10" s="131"/>
       <c r="AG10" s="132"/>
     </row>
-    <row r="11" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="150" t="s">
         <v>22</v>
       </c>
@@ -4975,8 +5403,42 @@
       <c r="AG11" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ11">
+        <f>100/13.5</f>
+        <v>7.4074074074074074</v>
+      </c>
+      <c r="AK11">
+        <v>30</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <f>AJ11*AK11*AL11</f>
+        <v>666.66666666666674</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP11">
+        <f>100/12</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AQ11">
+        <v>30</v>
+      </c>
+      <c r="AR11">
+        <v>2</v>
+      </c>
+      <c r="AS11">
+        <f>AP11*AQ11*AR11</f>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="150"/>
       <c r="C12" s="28" t="s">
         <v>44</v>
@@ -5080,8 +5542,42 @@
         <f>$AF12/$Y10</f>
         <v>0.41570910384068283</v>
       </c>
-    </row>
-    <row r="13" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ12">
+        <v>-1290</v>
+      </c>
+      <c r="AK12">
+        <f>AM11/1000</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <f>AJ12*AK12*AL12</f>
+        <v>-860.00000000000011</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP12">
+        <v>-1290</v>
+      </c>
+      <c r="AQ12">
+        <f>AS11/1000</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <f>AP12*AQ12*AR12</f>
+        <v>-645.00000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="150"/>
       <c r="C13" s="28" t="s">
         <v>43</v>
@@ -5095,8 +5591,40 @@
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ13">
+        <v>1290</v>
+      </c>
+      <c r="AK13">
+        <v>2.35</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <f>AJ13*AK13*AL13</f>
+        <v>9094.5</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP13">
+        <v>1290</v>
+      </c>
+      <c r="AQ13">
+        <v>2.7</v>
+      </c>
+      <c r="AR13">
+        <v>2</v>
+      </c>
+      <c r="AS13">
+        <f>AP13*AQ13*AR13</f>
+        <v>6966.0000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:51" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="157" t="s">
         <v>42</v>
       </c>
@@ -5178,8 +5706,40 @@
       </c>
       <c r="AF14" s="131"/>
       <c r="AG14" s="132"/>
-    </row>
-    <row r="15" spans="2:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ14">
+        <v>8.66</v>
+      </c>
+      <c r="AK14">
+        <v>30</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" ref="AM14:AM17" si="3">AJ14*AK14*AL14</f>
+        <v>779.40000000000009</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP14">
+        <v>8.66</v>
+      </c>
+      <c r="AQ14">
+        <v>30</v>
+      </c>
+      <c r="AR14">
+        <v>2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" ref="AS14:AS17" si="4">AP14*AQ14*AR14</f>
+        <v>519.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="150"/>
       <c r="C15" s="28" t="s">
         <v>38</v>
@@ -5261,8 +5821,42 @@
       <c r="AG15" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="3"/>
+        <v>742.50000000000011</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP15">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="4"/>
+        <v>495.00000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:51" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
@@ -5368,8 +5962,42 @@
         <f>$AF16/$Y14</f>
         <v>0.16951729455827272</v>
       </c>
-    </row>
-    <row r="17" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AI16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ16">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="3"/>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16">
+        <f>225*1.1</f>
+        <v>247.50000000000003</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0.85</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="4"/>
+        <v>210.37500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="28" t="s">
         <v>35</v>
       </c>
@@ -5385,8 +6013,40 @@
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ17">
+        <v>110</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP17">
+        <v>110</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0.8</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>33</v>
       </c>
@@ -5467,8 +6127,24 @@
       </c>
       <c r="AF18" s="131"/>
       <c r="AG18" s="132"/>
-    </row>
-    <row r="19" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18">
+        <f>SUM(AM12:AM17)</f>
+        <v>10113.9</v>
+      </c>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18">
+        <f>SUM(AS12:AS17)</f>
+        <v>7633.9750000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>30</v>
       </c>
@@ -5553,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:45" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
@@ -5660,7 +6336,7 @@
         <v>0.21287081339712921</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="28" t="s">
         <v>28</v>
       </c>
@@ -5677,7 +6353,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
@@ -5759,7 +6435,7 @@
       <c r="AF22" s="131"/>
       <c r="AG22" s="132"/>
     </row>
-    <row r="23" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5844,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:45" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="143"/>
       <c r="H24" s="7">
         <f>$M22*$E$4</f>
@@ -5938,8 +6614,8 @@
         <v>0.21324081632653064</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
@@ -6015,7 +6691,7 @@
       <c r="AF26" s="138"/>
       <c r="AG26" s="139"/>
     </row>
-    <row r="27" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -6093,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:45" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -6193,7 +6869,7 @@
         <v>0.44392364864864869</v>
       </c>
     </row>
-    <row r="29" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:45" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
@@ -6201,7 +6877,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="2:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>149</v>
       </c>
@@ -6277,7 +6953,7 @@
       <c r="AF30" s="138"/>
       <c r="AG30" s="139"/>
     </row>
-    <row r="31" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="147"/>
       <c r="H31" s="11" t="s">
         <v>10</v>
@@ -6349,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:45" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="147"/>
       <c r="H32" s="7">
         <f>$M30*$E$4</f>
@@ -6443,8 +7119,8 @@
         <v>0.5970883204633205</v>
       </c>
     </row>
-    <row r="33" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G34" s="148" t="s">
         <v>16</v>
       </c>
@@ -6480,7 +7156,7 @@
       <c r="R34" s="138"/>
       <c r="S34" s="139"/>
     </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G35" s="149"/>
       <c r="H35" s="11" t="s">
         <v>10</v>
@@ -6517,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G36" s="149"/>
       <c r="H36" s="7">
         <f>$M34*$E$4</f>
@@ -6565,8 +7241,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G38" s="151" t="s">
         <v>62</v>
       </c>
@@ -6602,7 +7278,7 @@
       <c r="R38" s="138"/>
       <c r="S38" s="139"/>
     </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G39" s="152"/>
       <c r="H39" s="11" t="s">
         <v>10</v>
@@ -6639,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G40" s="152"/>
       <c r="H40" s="7">
         <f>$M38*$E$4</f>
@@ -6687,8 +7363,8 @@
         <v>0.20016097792463447</v>
       </c>
     </row>
-    <row r="41" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="7:19" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="41" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="7:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G42" s="140" t="s">
         <v>32</v>
       </c>
@@ -6724,7 +7400,7 @@
       <c r="R42" s="138"/>
       <c r="S42" s="139"/>
     </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="7:19" x14ac:dyDescent="0.3">
       <c r="G43" s="141"/>
       <c r="H43" s="11" t="s">
         <v>10</v>
@@ -6761,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="7:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G44" s="141"/>
       <c r="H44" s="7">
         <f>$M42*$E$4</f>
@@ -6871,38 +7547,38 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="67" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="68" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.3984375" style="68" customWidth="1"/>
+    <col min="17" max="17" width="6.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="68" customWidth="1"/>
     <col min="19" max="19" width="8.5" style="68" customWidth="1"/>
-    <col min="20" max="20" width="6.59765625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.625" style="68" customWidth="1"/>
+    <col min="21" max="21" width="12.125" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.375" style="69" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:32" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" s="183" t="s">
         <v>101</v>
       </c>
@@ -6934,7 +7610,7 @@
       <c r="AB3" s="183"/>
       <c r="AC3" s="183"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" s="183"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -6964,7 +7640,7 @@
       <c r="AB4" s="183"/>
       <c r="AC4" s="183"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="183"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
@@ -6994,13 +7670,13 @@
       <c r="AB5" s="183"/>
       <c r="AC5" s="183"/>
     </row>
-    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:32" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:32" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="184" t="s">
         <v>102</v>
       </c>
@@ -7040,7 +7716,7 @@
       <c r="AB8" s="196"/>
       <c r="AC8" s="197"/>
     </row>
-    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="172" t="s">
         <v>72</v>
       </c>
@@ -7112,7 +7788,7 @@
       <c r="AB9" s="164"/>
       <c r="AC9" s="165"/>
     </row>
-    <row r="10" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:32" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="172"/>
       <c r="C10" s="174"/>
       <c r="D10" s="174"/>
@@ -7162,7 +7838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:32" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -7273,7 +7949,7 @@
       <c r="AE11" s="94"/>
       <c r="AF11" s="93"/>
     </row>
-    <row r="12" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
         <v>129</v>
       </c>
@@ -7382,7 +8058,7 @@
       </c>
       <c r="AF12" s="95"/>
     </row>
-    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="96"/>
       <c r="C13" s="97"/>
       <c r="D13" s="98"/>
@@ -7413,7 +8089,7 @@
       <c r="AC13" s="107"/>
       <c r="AD13" s="115"/>
     </row>
-    <row r="14" spans="2:32" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:32" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
         <v>129</v>
       </c>
@@ -7522,7 +8198,7 @@
         <v>2.9067641681901263E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:32" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="96"/>
       <c r="C15" s="97"/>
       <c r="D15" s="98"/>
@@ -7553,7 +8229,7 @@
       <c r="AC15" s="107"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:32" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
@@ -7662,7 +8338,7 @@
         <v>2.8728414442700134E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
         <v>129</v>
       </c>
@@ -7771,7 +8447,7 @@
         <v>2.897727272727274E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
         <v>129</v>
       </c>
@@ -7880,7 +8556,7 @@
         <v>2.8929986789960366E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
         <v>129</v>
       </c>
@@ -7989,7 +8665,7 @@
         <v>2.8968466060929982E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
         <v>129</v>
       </c>
@@ -8098,7 +8774,7 @@
         <v>2.8967768257853937E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="75" t="s">
         <v>129</v>
       </c>
@@ -8207,7 +8883,7 @@
         <v>2.8976266383280214E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
         <v>129</v>
       </c>
@@ -8316,7 +8992,7 @@
         <v>2.8974434322656478E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
       <c r="D23" s="98"/>
@@ -8347,7 +9023,7 @@
       <c r="AC23" s="107"/>
       <c r="AD23" s="115"/>
     </row>
-    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
         <v>129</v>
       </c>
@@ -8456,7 +9132,7 @@
         <v>2.7333333333333343</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="75" t="s">
         <v>129</v>
       </c>
@@ -8565,7 +9241,7 @@
         <v>2.964444444444446</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>129</v>
       </c>
@@ -8674,7 +9350,7 @@
         <v>3.1433333333333309</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="75" t="s">
         <v>129</v>
       </c>
@@ -8783,7 +9459,7 @@
         <v>3.2839999999999989</v>
       </c>
     </row>
-    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="96"/>
       <c r="C28" s="97"/>
       <c r="D28" s="98"/>
@@ -8814,7 +9490,7 @@
       <c r="AC28" s="107"/>
       <c r="AD28" s="115"/>
     </row>
-    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="75" t="s">
         <v>129</v>
       </c>
@@ -8923,7 +9599,7 @@
         <v>3.1544359255202631E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
         <v>129</v>
       </c>
@@ -9032,7 +9708,7 @@
         <v>3.0700549450549453E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="75" t="s">
         <v>129</v>
       </c>
@@ -9141,7 +9817,7 @@
         <v>2.7689243027888444E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
       <c r="D32" s="98"/>
@@ -9172,7 +9848,7 @@
       <c r="AC32" s="107"/>
       <c r="AD32" s="115"/>
     </row>
-    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="75" t="s">
         <v>129</v>
       </c>
@@ -9281,7 +9957,7 @@
         <v>3.1822660098522165E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
         <v>129</v>
       </c>
@@ -9388,7 +10064,7 @@
         <v>3.1381466742467307E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="75" t="s">
         <v>129</v>
       </c>
@@ -9497,7 +10173,7 @@
         <v>2.8737060041407858E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="96"/>
       <c r="C36" s="97"/>
       <c r="D36" s="98"/>
@@ -9528,7 +10204,7 @@
       <c r="AC36" s="107"/>
       <c r="AD36" s="115"/>
     </row>
-    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="75" t="s">
         <v>129</v>
       </c>
@@ -9637,7 +10313,7 @@
         <v>3.0645161290322576E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
         <v>129</v>
       </c>
@@ -9746,7 +10422,7 @@
         <v>2.9451697127937354E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="75" t="s">
         <v>129</v>
       </c>
@@ -9855,7 +10531,7 @@
         <v>2.7912169705991807E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="96"/>
       <c r="C40" s="97"/>
       <c r="D40" s="98"/>
@@ -9886,7 +10562,7 @@
       <c r="AC40" s="107"/>
       <c r="AD40" s="115"/>
     </row>
-    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="75" t="s">
         <v>129</v>
       </c>
@@ -9995,7 +10671,7 @@
         <v>3.212435233160621E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="75" t="s">
         <v>129</v>
       </c>
@@ -10104,7 +10780,7 @@
         <v>3.0485338725985855E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="75" t="s">
         <v>129</v>
       </c>
@@ -10213,7 +10889,7 @@
         <v>2.9142857142857137E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="96"/>
       <c r="C44" s="97"/>
       <c r="D44" s="98"/>
@@ -10244,7 +10920,7 @@
       <c r="AC44" s="107"/>
       <c r="AD44" s="115"/>
     </row>
-    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="75" t="s">
         <v>129</v>
       </c>
@@ -10353,7 +11029,7 @@
         <v>3.1956155143338966E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="75" t="s">
         <v>129</v>
       </c>
@@ -10462,7 +11138,7 @@
         <v>3.0344827586206907E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="75" t="s">
         <v>129</v>
       </c>
@@ -10571,7 +11247,7 @@
         <v>2.9159460394327208E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="96"/>
       <c r="C48" s="97"/>
       <c r="D48" s="98"/>
@@ -10602,7 +11278,7 @@
       <c r="AC48" s="107"/>
       <c r="AD48" s="115"/>
     </row>
-    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="75" t="s">
         <v>129</v>
       </c>
@@ -10711,7 +11387,7 @@
         <v>2.3072177668106125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="75" t="s">
         <v>129</v>
       </c>
@@ -10820,7 +11496,7 @@
         <v>2.0939766635130863E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:30" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="96"/>
       <c r="C51" s="97"/>
       <c r="D51" s="98"/>
@@ -10851,7 +11527,7 @@
       <c r="AC51" s="107"/>
       <c r="AD51" s="115"/>
     </row>
-    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="75" t="s">
         <v>129</v>
       </c>
@@ -10960,7 +11636,7 @@
         <v>2.1364221364221364E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:30" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B53" s="75" t="s">
         <v>129</v>
       </c>
@@ -11069,7 +11745,7 @@
         <v>1.9891067538126361E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="U62" s="69"/>
     </row>
   </sheetData>
@@ -11123,41 +11799,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B34607-C76F-4575-8855-6312C5317CEF}">
   <dimension ref="B1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="10" style="66" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="67" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="68" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="68" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.3984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" style="68" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" style="68" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="68" customWidth="1"/>
-    <col min="18" max="18" width="6.59765625" style="68" customWidth="1"/>
-    <col min="19" max="19" width="12.09765625" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.19921875" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.3984375" style="69" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.375" style="69" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.375" style="69" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="69" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="183" t="s">
         <v>101</v>
       </c>
@@ -11187,7 +11863,7 @@
       <c r="Z3" s="183"/>
       <c r="AA3" s="183"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="183"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -11215,7 +11891,7 @@
       <c r="Z4" s="183"/>
       <c r="AA4" s="183"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="183"/>
       <c r="C5" s="183"/>
       <c r="D5" s="183"/>
@@ -11243,13 +11919,13 @@
       <c r="Z5" s="183"/>
       <c r="AA5" s="183"/>
     </row>
-    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:30" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AD7">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="25.8" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:30" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="184" t="s">
         <v>102</v>
       </c>
@@ -11287,7 +11963,7 @@
       <c r="Z8" s="196"/>
       <c r="AA8" s="197"/>
     </row>
-    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="172" t="s">
         <v>72</v>
       </c>
@@ -11355,7 +12031,7 @@
       <c r="Z9" s="164"/>
       <c r="AA9" s="165"/>
     </row>
-    <row r="10" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="172"/>
       <c r="C10" s="174"/>
       <c r="D10" s="174"/>
@@ -11399,7 +12075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="22.2" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:30" ht="21.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="75" t="s">
         <v>129</v>
       </c>
@@ -11504,7 +12180,7 @@
       <c r="AC11" s="94"/>
       <c r="AD11" s="93"/>
     </row>
-    <row r="12" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="75" t="s">
         <v>147</v>
       </c>
@@ -11608,7 +12284,7 @@
       </c>
       <c r="AD12" s="95"/>
     </row>
-    <row r="13" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="75" t="s">
         <v>147</v>
       </c>
@@ -11650,7 +12326,7 @@
       <c r="AB13" s="93"/>
       <c r="AD13" s="95"/>
     </row>
-    <row r="14" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="75" t="s">
         <v>147</v>
       </c>
@@ -11692,7 +12368,7 @@
       <c r="AB14" s="93"/>
       <c r="AD14" s="95"/>
     </row>
-    <row r="15" spans="2:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:30" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="75" t="s">
         <v>147</v>
       </c>
@@ -11734,7 +12410,7 @@
       <c r="AB15" s="93"/>
       <c r="AD15" s="95"/>
     </row>
-    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:30" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="96"/>
       <c r="C16" s="98"/>
       <c r="D16" s="99"/>
@@ -11763,7 +12439,7 @@
       <c r="AA16" s="107"/>
       <c r="AB16" s="115"/>
     </row>
-    <row r="17" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="75" t="s">
         <v>147</v>
       </c>
@@ -11866,7 +12542,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="75" t="s">
         <v>147</v>
       </c>
@@ -11904,7 +12580,7 @@
       <c r="AA18" s="92"/>
       <c r="AB18" s="93"/>
     </row>
-    <row r="19" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="75" t="s">
         <v>147</v>
       </c>
@@ -11942,7 +12618,7 @@
       <c r="AA19" s="92"/>
       <c r="AB19" s="93"/>
     </row>
-    <row r="20" spans="2:28" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:28" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="75" t="s">
         <v>147</v>
       </c>
@@ -11980,7 +12656,7 @@
       <c r="AA20" s="92"/>
       <c r="AB20" s="93"/>
     </row>
-    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="96"/>
       <c r="C21" s="98"/>
       <c r="D21" s="99"/>
@@ -12009,7 +12685,7 @@
       <c r="AA21" s="107"/>
       <c r="AB21" s="115"/>
     </row>
-    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="75" t="s">
         <v>147</v>
       </c>
@@ -12112,7 +12788,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="96"/>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
@@ -12141,7 +12817,7 @@
       <c r="AA23" s="107"/>
       <c r="AB23" s="115"/>
     </row>
-    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="75" t="s">
         <v>147</v>
       </c>
@@ -12176,7 +12852,7 @@
       <c r="AA24" s="92"/>
       <c r="AB24" s="93"/>
     </row>
-    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:28" s="112" customFormat="1" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="96"/>
       <c r="C25" s="98"/>
       <c r="D25" s="99"/>
@@ -12205,7 +12881,7 @@
       <c r="AA25" s="107"/>
       <c r="AB25" s="115"/>
     </row>
-    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="75" t="s">
         <v>147</v>
       </c>
@@ -12308,7 +12984,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="96"/>
       <c r="C27" s="98"/>
       <c r="D27" s="99"/>
@@ -12337,7 +13013,7 @@
       <c r="AA27" s="107"/>
       <c r="AB27" s="115"/>
     </row>
-    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="75" t="s">
         <v>147</v>
       </c>
@@ -12440,7 +13116,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="96"/>
       <c r="C29" s="98"/>
       <c r="D29" s="99"/>
@@ -12469,7 +13145,7 @@
       <c r="AA29" s="107"/>
       <c r="AB29" s="115"/>
     </row>
-    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
         <v>147</v>
       </c>
@@ -12504,7 +13180,7 @@
       <c r="AA30" s="92"/>
       <c r="AB30" s="93"/>
     </row>
-    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="96"/>
       <c r="C31" s="98"/>
       <c r="D31" s="99"/>
@@ -12533,7 +13209,7 @@
       <c r="AA31" s="107"/>
       <c r="AB31" s="115"/>
     </row>
-    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="75" t="s">
         <v>147</v>
       </c>
@@ -12636,7 +13312,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="96"/>
       <c r="C33" s="98"/>
       <c r="D33" s="99"/>
@@ -12665,7 +13341,7 @@
       <c r="AA33" s="107"/>
       <c r="AB33" s="115"/>
     </row>
-    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="75" t="s">
         <v>147</v>
       </c>
@@ -12768,7 +13444,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="96"/>
       <c r="C35" s="98"/>
       <c r="D35" s="99"/>
@@ -12797,7 +13473,7 @@
       <c r="AA35" s="107"/>
       <c r="AB35" s="115"/>
     </row>
-    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="75" t="s">
         <v>147</v>
       </c>
@@ -12900,7 +13576,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="96"/>
       <c r="C37" s="98"/>
       <c r="D37" s="99"/>
@@ -12929,7 +13605,7 @@
       <c r="AA37" s="107"/>
       <c r="AB37" s="115"/>
     </row>
-    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:28" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="75" t="s">
         <v>147</v>
       </c>
@@ -13032,7 +13708,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:28" s="112" customFormat="1" ht="8.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="96"/>
       <c r="C39" s="98"/>
       <c r="D39" s="99"/>
@@ -13061,7 +13737,7 @@
       <c r="AA39" s="107"/>
       <c r="AB39" s="115"/>
     </row>
-    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
         <v>147</v>
       </c>
@@ -13164,7 +13840,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="19:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="19:19" x14ac:dyDescent="0.3">
       <c r="S49" s="69"/>
     </row>
   </sheetData>
